--- a/html/data/Hoa/Chelsea/Player.xlsx
+++ b/html/data/Hoa/Chelsea/Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -53,16 +53,286 @@
   </si>
   <si>
     <t>red card</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Petr Cech</t>
+  </si>
+  <si>
+    <t>Goalkeeper</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/petr-cech/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411128051080.jpg</t>
+  </si>
+  <si>
+    <t>20/05/1982</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>1.96 </t>
+  </si>
+  <si>
+    <t>Branislav Ivanovic</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/branislav-ivanovic/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411128270338.jpg</t>
+  </si>
+  <si>
+    <t>22/02/1984</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>1.85 </t>
+  </si>
+  <si>
+    <t>Filipe Luis</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>1.88 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/filipe-luis/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1417536873782.jpg</t>
+  </si>
+  <si>
+    <t>Cesc Fàbregas</t>
+  </si>
+  <si>
+    <t>Midfielder</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>1.75 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/cesc-fabregas/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411132609317.jpg</t>
+  </si>
+  <si>
+    <t>Ramires</t>
+  </si>
+  <si>
+    <t>24/03/1987</t>
+  </si>
+  <si>
+    <t>1.8 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/ramires/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1418213565096.jpg</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>1.79 </t>
+  </si>
+  <si>
+    <t>67 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/oscar/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411128885878.jpg</t>
+  </si>
+  <si>
+    <t>Eden Hazard</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>1.73 </t>
+  </si>
+  <si>
+    <t>74 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/eden-hazard/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411128985532.jpg</t>
+  </si>
+  <si>
+    <t>Didier Drogba</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>1.89 </t>
+  </si>
+  <si>
+    <t>91 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/didier-drogba/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411646975097.jpg</t>
+  </si>
+  <si>
+    <t>John Obi Mikel</t>
+  </si>
+  <si>
+    <t>22/04/1987</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>83 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/john-mikel-obi/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411129096302.jpg</t>
+  </si>
+  <si>
+    <t>Thibaut Courtois</t>
+  </si>
+  <si>
+    <t>1.99 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/thibaut-courtois/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411133691652.jpg</t>
+  </si>
+  <si>
+    <t>André Schürrle</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>1.83 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/andre-schurrle/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411129246185.jpg</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>15/06/1992</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/mohamed-salah/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411129742334.jpg</t>
+  </si>
+  <si>
+    <t>Loïc Remy</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/loic-remy/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1414593180108.jpg</t>
+  </si>
+  <si>
+    <t>Diego Costa</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/diego-costa/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1413379470250.jpg</t>
+  </si>
+  <si>
+    <t>Nemanja Matic</t>
+  </si>
+  <si>
+    <t>1.94 </t>
+  </si>
+  <si>
+    <t>84 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/nemanja-matic/summary/_jcr_content/tabparmain/box/box/textimage/image.img.jpg/1411130054987.jpg</t>
+  </si>
+  <si>
+    <t>Willian</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/willian/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411130264397.jpg</t>
+  </si>
+  <si>
+    <t>Mark Schwarzer</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/mark-schwarzer/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411130686512.jpg</t>
+  </si>
+  <si>
+    <t>Gary Cahill</t>
+  </si>
+  <si>
+    <t>19/12/1985</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>1.93 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/gary-cahill/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411131139404.jpg</t>
+  </si>
+  <si>
+    <t>John Terry</t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/john-terry/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411131527450.jpg</t>
+  </si>
+  <si>
+    <t>1.87 </t>
+  </si>
+  <si>
+    <t>César Azpilicueta</t>
+  </si>
+  <si>
+    <t>28/08/1989</t>
+  </si>
+  <si>
+    <t>1.78 </t>
+  </si>
+  <si>
+    <t>http://www.chelseafc.com/content/cfc/en/homepage/teams/first-team/cesar-azpilicueta/summary/_jcr_content/tabparmain/box/box/textimage_0/image.img.jpg/1411131723039.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,14 +376,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,20 +693,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +750,855 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3">
+        <v>328</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3">
+        <v>193</v>
+      </c>
+      <c r="K3" s="3">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4">
+        <v>31298</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>31872</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3">
+        <v>227</v>
+      </c>
+      <c r="K5" s="3">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3">
+        <v>46</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3">
+        <v>132</v>
+      </c>
+      <c r="K6" s="3">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33490</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3">
+        <v>81</v>
+      </c>
+      <c r="K7" s="3">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>33420</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3">
+        <v>85</v>
+      </c>
+      <c r="K8" s="3">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4">
+        <v>28797</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3">
+        <v>239</v>
+      </c>
+      <c r="K9" s="3">
+        <v>103</v>
+      </c>
+      <c r="L9" s="5">
+        <v>40</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3">
+        <v>215</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>31</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>33913</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>91</v>
+      </c>
+      <c r="J11" s="3">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>33035</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>72</v>
+      </c>
+      <c r="J12" s="3">
+        <v>41</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13" s="3">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4">
+        <v>31809</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3">
+        <v>48</v>
+      </c>
+      <c r="K14" s="3">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32334</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>12</v>
+      </c>
+      <c r="L15" s="5">
+        <v>7</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>32150</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
+        <v>32394</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>75</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>26460</v>
+      </c>
+      <c r="F18">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>95</v>
+      </c>
+      <c r="J18" s="3">
+        <v>508</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>8</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3">
+        <v>240</v>
+      </c>
+      <c r="K19" s="3">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5">
+        <v>27</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4">
+        <v>29414</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20" s="3">
+        <v>437</v>
+      </c>
+      <c r="K20" s="3">
+        <v>34</v>
+      </c>
+      <c r="L20" s="5">
+        <v>66</v>
+      </c>
+      <c r="M20" s="5">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21" s="3">
+        <v>69</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.premierleague.com/en-gb/players/profile.overview.html/petr-cech"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.premierleague.com/en-gb/players/profile.overview.html/branislav-ivanovic"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.premierleague.com/en-gb/players/profile.overview.html/filipe-luis"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.premierleague.com/en-gb/players/profile.overview.html/francesc-fabregas"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.premierleague.com/en-gb/players/profile.overview.html/ramires"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.premierleague.com/en-gb/players/profile.overview.html/oscar"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.premierleague.com/en-gb/players/profile.overview.html/eden-hazard"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.premierleague.com/en-gb/players/profile.overview.html/didier-drogba"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.premierleague.com/en-gb/players/profile.overview.html/john-obi-mikel"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.premierleague.com/en-gb/players/profile.overview.html/thibaut-courtois"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.premierleague.com/en-gb/players/profile.overview.html/andre-schurrle"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mohamed-salah"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.premierleague.com/en-gb/players/profile.overview.html/loic-remy"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.premierleague.com/en-gb/players/profile.overview.html/diego-costa"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.premierleague.com/en-gb/players/profile.overview.html/nemanja-matic"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.premierleague.com/en-gb/players/profile.overview.html/willian"/>
+    <hyperlink ref="N17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://www.premierleague.com/en-gb/players/profile.overview.html/mark-schwarzer"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://www.premierleague.com/en-gb/players/profile.overview.html/gary-cahill"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://www.premierleague.com/en-gb/players/profile.overview.html/john-terry"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://www.premierleague.com/en-gb/players/profile.overview.html/cesar-azpilicueta"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
 </worksheet>
 </file>